--- a/ChatWithPrivateDoc_2.0/task_list.xlsx
+++ b/ChatWithPrivateDoc_2.0/task_list.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t xml:space="preserve">Sr</t>
   </si>
@@ -122,6 +123,90 @@
     <t xml:space="preserve">Pricing details to be finalized.
 Rate limits 
 Plans as per rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Registration / Access rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Registration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> party </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmaton of registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login/ authentication / authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Profile – Modification / Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment gateway integration – credit limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Creation / load / modify – user, tag, metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource upload --&gt; search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource upload --&gt; upload --&gt; indexing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource upload index --&gt; Resouce list loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat --&gt; checkbox for resource listed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat --&gt; search from web--&gt; disabled in phase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat/ result / Chat history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat history --&gt; search</t>
   </si>
 </sst>
 </file>
@@ -131,11 +216,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,6 +237,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,11 +320,11 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="90.59"/>
@@ -542,4 +635,142 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>